--- a/testData/AgePredictor.xlsx
+++ b/testData/AgePredictor.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E4217A-967F-134E-AA4C-4A2B06BFB0B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114C8810-BEED-E740-A11D-370C3833C809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetAge" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="GetAgeNew" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>{
     "name": "himanshu",
@@ -62,15 +62,48 @@
     "uniqueTrackingId": "TC_3"
 }</t>
   </si>
+  <si>
+    <t>{
+    "name": "john",
+    "testMeta": {
+        "tcDescription": {
+            "TCDESCRIPTION": "Validate age of name :john"
+        },
+        "expectedAge": 57,
+        "expectedStatusCode":200
+    },
+    "uniqueTrackingId": "TC_5"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "name": "dua",
+    "testMeta": {
+        "tcDescription": {
+            "TCDESCRIPTION": "Validate age of name :dua"
+        },
+        "expectedAge": 64,
+        "expectedStatusCode":200
+    },
+    "uniqueTrackingId": "TC_4"
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,11 +129,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -415,13 +452,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D54495-C3F6-6F42-87F5-0B764F221719}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+    <col min="2" max="2" width="54.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="265" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="209" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
